--- a/unity-business-innovation/src/main/resources/template/pd.xlsx
+++ b/unity-business-innovation/src/main/resources/template/pd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B67DA8E-312C-BE46-B347-6283488D3CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38F793-E2CD-B747-9407-E23C87A8FE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="2460" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
